--- a/inform.xlsx
+++ b/inform.xlsx
@@ -354,8 +354,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CRD2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -421,6 +421,9 @@
       <c r="T1">
         <v>20</v>
       </c>
+      <c r="U1">
+        <v>21</v>
+      </c>
     </row>
     <row r="2" spans="1:1020 1029:2500" x14ac:dyDescent="0.25">
       <c r="A2">
@@ -482,6 +485,9 @@
       </c>
       <c r="T2">
         <v>-8.3547542362149402E-4</v>
+      </c>
+      <c r="U2">
+        <v>-8.8999999999999995E-4</v>
       </c>
       <c r="AM2" s="1"/>
       <c r="AN2" s="1"/>
